--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>180.874633849219</v>
+        <v>4.094072</v>
       </c>
       <c r="H2">
-        <v>180.874633849219</v>
+        <v>12.282216</v>
       </c>
       <c r="I2">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="J2">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N2">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q2">
-        <v>9266.449995190664</v>
+        <v>978.8268330157946</v>
       </c>
       <c r="R2">
-        <v>9266.449995190664</v>
+        <v>8809.441497142152</v>
       </c>
       <c r="S2">
-        <v>0.1161072451107731</v>
+        <v>0.006013340010153695</v>
       </c>
       <c r="T2">
-        <v>0.1161072451107731</v>
+        <v>0.006013340010153695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>180.874633849219</v>
+        <v>4.094072</v>
       </c>
       <c r="H3">
-        <v>180.874633849219</v>
+        <v>12.282216</v>
       </c>
       <c r="I3">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="J3">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N3">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q3">
-        <v>21167.33305592199</v>
+        <v>479.2163257067493</v>
       </c>
       <c r="R3">
-        <v>21167.33305592199</v>
+        <v>4312.946931360744</v>
       </c>
       <c r="S3">
-        <v>0.2652235460981122</v>
+        <v>0.002944025038640048</v>
       </c>
       <c r="T3">
-        <v>0.2652235460981122</v>
+        <v>0.002944025038640048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>180.874633849219</v>
+        <v>4.094072</v>
       </c>
       <c r="H4">
-        <v>180.874633849219</v>
+        <v>12.282216</v>
       </c>
       <c r="I4">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="J4">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N4">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q4">
-        <v>25021.20391432637</v>
+        <v>700.73657345576</v>
       </c>
       <c r="R4">
-        <v>25021.20391432637</v>
+        <v>6306.629161101841</v>
       </c>
       <c r="S4">
-        <v>0.3135119767931743</v>
+        <v>0.004304915978607556</v>
       </c>
       <c r="T4">
-        <v>0.3135119767931743</v>
+        <v>0.004304915978607557</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>180.874633849219</v>
+        <v>4.094072</v>
       </c>
       <c r="H5">
-        <v>180.874633849219</v>
+        <v>12.282216</v>
       </c>
       <c r="I5">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="J5">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N5">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q5">
-        <v>10196.53054270483</v>
+        <v>236.211037694496</v>
       </c>
       <c r="R5">
-        <v>10196.53054270483</v>
+        <v>2125.899339250464</v>
       </c>
       <c r="S5">
-        <v>0.1277610165290655</v>
+        <v>0.001451142567712296</v>
       </c>
       <c r="T5">
-        <v>0.1277610165290655</v>
+        <v>0.001451142567712297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.2214361999187</v>
+        <v>181.0215506666667</v>
       </c>
       <c r="H6">
-        <v>10.2214361999187</v>
+        <v>543.064652</v>
       </c>
       <c r="I6">
-        <v>0.04648629784321118</v>
+        <v>0.6505617768331834</v>
       </c>
       <c r="J6">
-        <v>0.04648629784321118</v>
+        <v>0.6505617768331835</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N6">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q6">
-        <v>523.657880654155</v>
+        <v>43279.34417046441</v>
       </c>
       <c r="R6">
-        <v>523.657880654155</v>
+        <v>389514.0975341797</v>
       </c>
       <c r="S6">
-        <v>0.006561355636177359</v>
+        <v>0.2658829970073636</v>
       </c>
       <c r="T6">
-        <v>0.006561355636177359</v>
+        <v>0.2658829970073636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.2214361999187</v>
+        <v>181.0215506666667</v>
       </c>
       <c r="H7">
-        <v>10.2214361999187</v>
+        <v>543.064652</v>
       </c>
       <c r="I7">
-        <v>0.04648629784321118</v>
+        <v>0.6505617768331834</v>
       </c>
       <c r="J7">
-        <v>0.04648629784321118</v>
+        <v>0.6505617768331835</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N7">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q7">
-        <v>1196.190641822664</v>
+        <v>21188.80234256216</v>
       </c>
       <c r="R7">
-        <v>1196.190641822664</v>
+        <v>190699.2210830595</v>
       </c>
       <c r="S7">
-        <v>0.01498809146128234</v>
+        <v>0.1301716183047379</v>
       </c>
       <c r="T7">
-        <v>0.01498809146128234</v>
+        <v>0.1301716183047379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.2214361999187</v>
+        <v>181.0215506666667</v>
       </c>
       <c r="H8">
-        <v>10.2214361999187</v>
+        <v>543.064652</v>
       </c>
       <c r="I8">
-        <v>0.04648629784321118</v>
+        <v>0.6505617768331834</v>
       </c>
       <c r="J8">
-        <v>0.04648629784321118</v>
+        <v>0.6505617768331835</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N8">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q8">
-        <v>1413.977372131926</v>
+        <v>30983.43681689239</v>
       </c>
       <c r="R8">
-        <v>1413.977372131926</v>
+        <v>278850.9313520315</v>
       </c>
       <c r="S8">
-        <v>0.01771692691509855</v>
+        <v>0.1903441282755288</v>
       </c>
       <c r="T8">
-        <v>0.01771692691509855</v>
+        <v>0.1903441282755288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.2214361999187</v>
+        <v>181.0215506666667</v>
       </c>
       <c r="H9">
-        <v>10.2214361999187</v>
+        <v>543.064652</v>
       </c>
       <c r="I9">
-        <v>0.04648629784321118</v>
+        <v>0.6505617768331834</v>
       </c>
       <c r="J9">
-        <v>0.04648629784321118</v>
+        <v>0.6505617768331835</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N9">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q9">
-        <v>576.2178155377081</v>
+        <v>10444.19549241931</v>
       </c>
       <c r="R9">
-        <v>576.2178155377081</v>
+        <v>93997.75943177381</v>
       </c>
       <c r="S9">
-        <v>0.00721992383065294</v>
+        <v>0.06416303324555314</v>
       </c>
       <c r="T9">
-        <v>0.00721992383065294</v>
+        <v>0.06416303324555314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.784554439255</v>
+        <v>63.05609033333334</v>
       </c>
       <c r="H10">
-        <v>28.784554439255</v>
+        <v>189.168271</v>
       </c>
       <c r="I10">
-        <v>0.1309099176256638</v>
+        <v>0.2266132513854375</v>
       </c>
       <c r="J10">
-        <v>0.1309099176256638</v>
+        <v>0.2266132513854376</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N10">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q10">
-        <v>1474.671316087099</v>
+        <v>15075.69803445922</v>
       </c>
       <c r="R10">
-        <v>1474.671316087099</v>
+        <v>135681.282310133</v>
       </c>
       <c r="S10">
-        <v>0.01847741303774533</v>
+        <v>0.09261627809313049</v>
       </c>
       <c r="T10">
-        <v>0.01847741303774533</v>
+        <v>0.09261627809313051</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.784554439255</v>
+        <v>63.05609033333334</v>
       </c>
       <c r="H11">
-        <v>28.784554439255</v>
+        <v>189.168271</v>
       </c>
       <c r="I11">
-        <v>0.1309099176256638</v>
+        <v>0.2266132513854375</v>
       </c>
       <c r="J11">
-        <v>0.1309099176256638</v>
+        <v>0.2266132513854376</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N11">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q11">
-        <v>3368.58871648054</v>
+        <v>7380.795433732694</v>
       </c>
       <c r="R11">
-        <v>3368.58871648054</v>
+        <v>66427.15890359425</v>
       </c>
       <c r="S11">
-        <v>0.04220791737772098</v>
+        <v>0.04534329361576494</v>
       </c>
       <c r="T11">
-        <v>0.04220791737772098</v>
+        <v>0.04534329361576495</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.784554439255</v>
+        <v>63.05609033333334</v>
       </c>
       <c r="H12">
-        <v>28.784554439255</v>
+        <v>189.168271</v>
       </c>
       <c r="I12">
-        <v>0.1309099176256638</v>
+        <v>0.2266132513854375</v>
       </c>
       <c r="J12">
-        <v>0.1309099176256638</v>
+        <v>0.2266132513854376</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N12">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q12">
-        <v>3981.897244961513</v>
+        <v>10792.60664582764</v>
       </c>
       <c r="R12">
-        <v>3981.897244961513</v>
+        <v>97133.4598124488</v>
       </c>
       <c r="S12">
-        <v>0.04989258234454496</v>
+        <v>0.06630346775154129</v>
       </c>
       <c r="T12">
-        <v>0.04989258234454496</v>
+        <v>0.06630346775154131</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>63.05609033333334</v>
+      </c>
+      <c r="H13">
+        <v>189.168271</v>
+      </c>
+      <c r="I13">
+        <v>0.2266132513854375</v>
+      </c>
+      <c r="J13">
+        <v>0.2266132513854376</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>57.695868</v>
+      </c>
+      <c r="N13">
+        <v>173.087604</v>
+      </c>
+      <c r="O13">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="P13">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="Q13">
+        <v>3638.075864468076</v>
+      </c>
+      <c r="R13">
+        <v>32742.68278021269</v>
+      </c>
+      <c r="S13">
+        <v>0.02235021192500079</v>
+      </c>
+      <c r="T13">
+        <v>0.0223502119250008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>30.082493</v>
+      </c>
+      <c r="H14">
+        <v>90.247479</v>
+      </c>
+      <c r="I14">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="J14">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>239.0839323333333</v>
+      </c>
+      <c r="N14">
+        <v>717.251797</v>
+      </c>
+      <c r="O14">
+        <v>0.4086975387666237</v>
+      </c>
+      <c r="P14">
+        <v>0.4086975387666237</v>
+      </c>
+      <c r="Q14">
+        <v>7192.240720829974</v>
+      </c>
+      <c r="R14">
+        <v>64730.16648746976</v>
+      </c>
+      <c r="S14">
+        <v>0.04418492365597587</v>
+      </c>
+      <c r="T14">
+        <v>0.04418492365597588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>30.082493</v>
+      </c>
+      <c r="H15">
+        <v>90.247479</v>
+      </c>
+      <c r="I15">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="J15">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>117.0512696666667</v>
+      </c>
+      <c r="N15">
+        <v>351.153809</v>
+      </c>
+      <c r="O15">
+        <v>0.2000910950200451</v>
+      </c>
+      <c r="P15">
+        <v>0.2000910950200451</v>
+      </c>
+      <c r="Q15">
+        <v>3521.194000388612</v>
+      </c>
+      <c r="R15">
+        <v>31690.74600349751</v>
+      </c>
+      <c r="S15">
+        <v>0.0216321580609022</v>
+      </c>
+      <c r="T15">
+        <v>0.0216321580609022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>28.784554439255</v>
-      </c>
-      <c r="H13">
-        <v>28.784554439255</v>
-      </c>
-      <c r="I13">
-        <v>0.1309099176256638</v>
-      </c>
-      <c r="J13">
-        <v>0.1309099176256638</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>56.3734688812411</v>
-      </c>
-      <c r="N13">
-        <v>56.3734688812411</v>
-      </c>
-      <c r="O13">
-        <v>0.155312945225371</v>
-      </c>
-      <c r="P13">
-        <v>0.155312945225371</v>
-      </c>
-      <c r="Q13">
-        <v>1622.685183941732</v>
-      </c>
-      <c r="R13">
-        <v>1622.685183941732</v>
-      </c>
-      <c r="S13">
-        <v>0.02033200486565255</v>
-      </c>
-      <c r="T13">
-        <v>0.02033200486565255</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>30.082493</v>
+      </c>
+      <c r="H16">
+        <v>90.247479</v>
+      </c>
+      <c r="I16">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="J16">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>171.15883</v>
+      </c>
+      <c r="N16">
+        <v>513.47649</v>
+      </c>
+      <c r="O16">
+        <v>0.2925842480357353</v>
+      </c>
+      <c r="P16">
+        <v>0.2925842480357353</v>
+      </c>
+      <c r="Q16">
+        <v>5148.88430536319</v>
+      </c>
+      <c r="R16">
+        <v>46339.95874826871</v>
+      </c>
+      <c r="S16">
+        <v>0.0316317360300576</v>
+      </c>
+      <c r="T16">
+        <v>0.0316317360300576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.082493</v>
+      </c>
+      <c r="H17">
+        <v>90.247479</v>
+      </c>
+      <c r="I17">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="J17">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>57.695868</v>
+      </c>
+      <c r="N17">
+        <v>173.087604</v>
+      </c>
+      <c r="O17">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="P17">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="Q17">
+        <v>1735.635545238924</v>
+      </c>
+      <c r="R17">
+        <v>15620.71990715032</v>
+      </c>
+      <c r="S17">
+        <v>0.01066273043932964</v>
+      </c>
+      <c r="T17">
+        <v>0.01066273043932964</v>
       </c>
     </row>
   </sheetData>
